--- a/jpcore-r4/feature/swg2-endoscopy-conformance/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/feature/swg2-endoscopy-conformance/StructureDefinition-jp-observation-microbiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-09T10:06:24+00:00</t>
+    <t>2023-06-09T10:39:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
